--- a/Phân tích/Barchart.xlsx
+++ b/Phân tích/Barchart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/634d733daa62a581/Hy/CNPM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F4D2235D32822EEEF27277BED9FA3B8DB778C3F8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4946EF9C-521B-427A-8F26-1E8AC2F59434}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF748C85-D956-4BEB-B082-3C82F3968779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="4110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="65">
   <si>
     <t>Quản lí nhân viên</t>
   </si>
@@ -210,17 +210,23 @@
     <t xml:space="preserve"> 6/12</t>
   </si>
   <si>
-    <t>- Chấm công</t>
-  </si>
-  <si>
     <t>- Tính lương</t>
+  </si>
+  <si>
+    <t>Chấm công</t>
+  </si>
+  <si>
+    <t>- Đặt lịch làm việc</t>
+  </si>
+  <si>
+    <t>- Check in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +277,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -359,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -384,13 +397,14 @@
     <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -678,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -695,20 +709,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="D2" s="5"/>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="20"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
@@ -896,11 +910,11 @@
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
+      <c r="A9" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>33</v>
@@ -912,11 +926,9 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -926,92 +938,74 @@
     </row>
     <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
     </row>
     <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>32</v>
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="Q11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="Q12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>59</v>
+      <c r="A13" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1027,7 +1021,7 @@
     </row>
     <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>34</v>
@@ -1035,11 +1029,11 @@
       <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1055,7 +1049,7 @@
     </row>
     <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>34</v>
@@ -1063,11 +1057,11 @@
       <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1083,7 +1077,7 @@
     </row>
     <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>34</v>
@@ -1092,11 +1086,11 @@
         <v>33</v>
       </c>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
@@ -1111,7 +1105,7 @@
     </row>
     <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>34</v>
@@ -1120,11 +1114,11 @@
         <v>33</v>
       </c>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
@@ -1138,34 +1132,36 @@
       <c r="T17" s="8"/>
     </row>
     <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
+      <c r="A18" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
-      <c r="M18"/>
-      <c r="N18" s="15"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
       <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
     </row>
     <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>34</v>
@@ -1173,30 +1169,30 @@
       <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
     </row>
     <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
+      <c r="A20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>33</v>
@@ -1210,18 +1206,16 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="M20"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
     </row>
     <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>34</v>
@@ -1239,20 +1233,20 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="17"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
     </row>
     <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>12</v>
+      <c r="A22" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>33</v>
@@ -1261,15 +1255,16 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="Q22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
@@ -1288,27 +1283,26 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="Q23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
     </row>
     <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
+      <c r="A24" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>33</v>
@@ -1317,12 +1311,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -1334,7 +1326,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>34</v>
@@ -1363,7 +1355,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>34</v>
@@ -1375,11 +1367,11 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
       <c r="K26" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -1392,7 +1384,7 @@
     </row>
     <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>34</v>
@@ -1404,11 +1396,11 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -1420,11 +1412,11 @@
       <c r="T27" s="8"/>
     </row>
     <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
+      <c r="A28" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>33</v>
@@ -1433,11 +1425,13 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" s="8"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -1448,7 +1442,7 @@
     </row>
     <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>34</v>
@@ -1460,14 +1454,14 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
@@ -1476,11 +1470,11 @@
       <c r="T29" s="8"/>
     </row>
     <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>22</v>
+      <c r="A30" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>33</v>
@@ -1492,11 +1486,9 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -1506,7 +1498,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>34</v>
@@ -1521,10 +1513,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -1535,7 +1527,7 @@
     </row>
     <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>34</v>
@@ -1550,10 +1542,10 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
       <c r="M32" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -1563,11 +1555,11 @@
       <c r="T32" s="8"/>
     </row>
     <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>16</v>
+      <c r="A33" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>33</v>
@@ -1576,12 +1568,14 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
@@ -1591,7 +1585,7 @@
     </row>
     <row r="34" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>34</v>
@@ -1603,14 +1597,14 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
@@ -1619,11 +1613,11 @@
       <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>18</v>
+      <c r="A35" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>33</v>
@@ -1632,14 +1626,12 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
+      <c r="M35"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
@@ -1649,7 +1641,7 @@
     </row>
     <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>34</v>
@@ -1661,12 +1653,12 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
@@ -1678,7 +1670,7 @@
     </row>
     <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>34</v>
@@ -1690,12 +1682,12 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -1706,11 +1698,11 @@
       <c r="T37" s="8"/>
     </row>
     <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>23</v>
+      <c r="A38" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>33</v>
@@ -1721,11 +1713,13 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="L38" s="8"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
@@ -1734,7 +1728,7 @@
     </row>
     <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>34</v>
@@ -1748,13 +1742,13 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="L39" s="8"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
@@ -1762,11 +1756,11 @@
       <c r="T39" s="8"/>
     </row>
     <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="1" t="s">
-        <v>26</v>
+      <c r="A40" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>33</v>
@@ -1780,11 +1774,9 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="S40" s="8"/>
@@ -1792,7 +1784,7 @@
     </row>
     <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>34</v>
@@ -1809,22 +1801,22 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="M41" s="14"/>
+      <c r="N41" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
     </row>
     <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A42" s="2" t="s">
-        <v>28</v>
+      <c r="A42" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>33</v>
@@ -1836,11 +1828,13 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="S42" s="8"/>
@@ -1848,7 +1842,7 @@
     </row>
     <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>34</v>
@@ -1863,24 +1857,24 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
     </row>
     <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="1" t="s">
-        <v>30</v>
+      <c r="A44" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>33</v>
@@ -1892,11 +1886,9 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
@@ -1906,25 +1898,27 @@
       <c r="T44" s="8"/>
     </row>
     <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>50</v>
+      <c r="A45" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
@@ -1935,26 +1929,26 @@
     </row>
     <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -1964,19 +1958,17 @@
       <c r="T46" s="8"/>
     </row>
     <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>34</v>
+      <c r="A47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -1995,7 +1987,7 @@
     </row>
     <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>34</v>
@@ -2003,11 +1995,11 @@
       <c r="C48" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -2023,6 +2015,58 @@
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
     </row>
+    <row r="49" spans="1:16" ht="17.100000000000001" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="1:16" ht="17.100000000000001" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>

--- a/Phân tích/Barchart.xlsx
+++ b/Phân tích/Barchart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF748C85-D956-4BEB-B082-3C82F3968779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EDB39F-6207-4D40-A3C0-2219CA5C935F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
   <si>
     <t>Quản lí nhân viên</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>- Cập nhật chi tiết hàng hóa</t>
-  </si>
-  <si>
-    <t>- Xóa hàng hóa</t>
   </si>
   <si>
     <t>Quản lí đặt hàng</t>
@@ -398,13 +395,13 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -694,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -709,24 +706,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="D2" s="5"/>
-      <c r="E2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="21"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -735,7 +732,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
@@ -743,43 +740,43 @@
     </row>
     <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="D3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="N3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
@@ -788,10 +785,10 @@
     </row>
     <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4"/>
     </row>
@@ -800,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -827,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -842,7 +839,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -853,13 +850,13 @@
     </row>
     <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -871,7 +868,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -885,10 +882,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -900,7 +897,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -910,14 +907,14 @@
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>62</v>
+      <c r="A9" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -938,18 +935,18 @@
     </row>
     <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="S10" s="8"/>
@@ -957,18 +954,18 @@
     </row>
     <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="S11" s="8"/>
@@ -976,18 +973,18 @@
     </row>
     <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="S12" s="8"/>
@@ -998,10 +995,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1024,14 +1021,14 @@
         <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1049,17 +1046,17 @@
     </row>
     <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1080,15 +1077,15 @@
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="11"/>
       <c r="G16" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1108,15 +1105,15 @@
         <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="11"/>
       <c r="G17" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1133,19 +1130,19 @@
     </row>
     <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="14"/>
       <c r="H18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1164,16 +1161,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="14"/>
       <c r="H19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1192,10 +1189,10 @@
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1218,10 +1215,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1235,7 +1232,7 @@
       <c r="M21" s="8"/>
       <c r="N21" s="13"/>
       <c r="O21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="S21" s="8"/>
@@ -1246,10 +1243,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1263,7 +1260,7 @@
       <c r="M22" s="8"/>
       <c r="N22" s="17"/>
       <c r="O22" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="S22" s="8"/>
@@ -1274,10 +1271,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1291,7 +1288,7 @@
       <c r="M23" s="8"/>
       <c r="N23" s="17"/>
       <c r="O23" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="S23" s="8"/>
@@ -1302,10 +1299,10 @@
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1329,10 +1326,10 @@
         <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1342,7 +1339,7 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -1358,10 +1355,10 @@
         <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1371,7 +1368,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -1387,10 +1384,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1400,7 +1397,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -1416,10 +1413,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1429,7 +1426,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -1442,13 +1439,13 @@
     </row>
     <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1458,7 +1455,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -1474,10 +1471,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1501,10 +1498,10 @@
         <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1516,7 +1513,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -1527,13 +1524,13 @@
     </row>
     <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1545,7 +1542,7 @@
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
       <c r="M32" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -1559,10 +1556,10 @@
         <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1574,7 +1571,7 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
       <c r="M33" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -1584,54 +1581,54 @@
       <c r="T33" s="8"/>
     </row>
     <row r="34" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
+      <c r="P34"/>
       <c r="Q34" s="8"/>
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
@@ -1644,10 +1641,10 @@
         <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1656,7 +1653,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -1673,21 +1670,21 @@
         <v>18</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -1699,13 +1696,13 @@
     </row>
     <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1713,9 +1710,9 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="12"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -1727,14 +1724,14 @@
       <c r="T38" s="8"/>
     </row>
     <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="1" t="s">
-        <v>21</v>
+      <c r="A39" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -1742,13 +1739,11 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="8" t="s">
-        <v>57</v>
-      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
@@ -1756,14 +1751,14 @@
       <c r="T39" s="8"/>
     </row>
     <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>23</v>
+      <c r="A40" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -1774,8 +1769,10 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
@@ -1787,10 +1784,10 @@
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -1801,11 +1798,11 @@
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O41" s="8"/>
+      <c r="M41"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="S41" s="8"/>
@@ -1816,10 +1813,10 @@
         <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -1833,7 +1830,7 @@
       <c r="M42"/>
       <c r="N42" s="11"/>
       <c r="O42" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
@@ -1841,14 +1838,14 @@
       <c r="T42" s="8"/>
     </row>
     <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -1857,27 +1854,25 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
     </row>
     <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -1886,9 +1881,11 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="8"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
@@ -1902,10 +1899,10 @@
         <v>29</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -1917,7 +1914,7 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -1928,27 +1925,25 @@
       <c r="T45" s="8"/>
     </row>
     <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="1" t="s">
-        <v>30</v>
+      <c r="A46" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -1958,17 +1953,19 @@
       <c r="T46" s="8"/>
     </row>
     <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>32</v>
+      <c r="B47" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -1990,14 +1987,14 @@
         <v>51</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2020,16 +2017,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -2042,29 +2039,6 @@
       <c r="P49" s="8"/>
     </row>
     <row r="50" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
       <c r="P50" s="8"/>
     </row>
   </sheetData>

--- a/Phân tích/Barchart.xlsx
+++ b/Phân tích/Barchart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EDB39F-6207-4D40-A3C0-2219CA5C935F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F24C05-91B7-46CD-9293-E732988561D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -981,9 +981,9 @@
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="Q12" s="8"/>

--- a/Phân tích/Barchart.xlsx
+++ b/Phân tích/Barchart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F24C05-91B7-46CD-9293-E732988561D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE5B9C3-4428-4BD6-8735-31F3D1AFFA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5025" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>

--- a/Phân tích/Barchart.xlsx
+++ b/Phân tích/Barchart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\CNPM\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE5B9C3-4428-4BD6-8735-31F3D1AFFA46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D913806F-838F-42EC-99CE-13F95B01433D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="63">
   <si>
     <t>Quản lí nhân viên</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>- Đăng nhập</t>
-  </si>
-  <si>
-    <t>- Đăng xuất</t>
   </si>
   <si>
     <t>- Thay đổi thông tin tài khoản</t>
@@ -223,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,11 +688,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
@@ -705,7 +702,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1">
+    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
@@ -714,7 +711,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
       <c r="E2" s="21" t="s">
         <v>46</v>
@@ -732,13 +729,13 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
         <v>41</v>
       </c>
@@ -783,7 +780,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -792,7 +789,7 @@
       </c>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -819,7 +816,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -839,7 +836,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -848,7 +845,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -868,7 +865,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -877,7 +874,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -897,7 +894,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -906,9 +903,9 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>31</v>
@@ -933,9 +930,9 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>33</v>
@@ -946,15 +943,15 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>33</v>
@@ -965,15 +962,15 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>33</v>
@@ -984,13 +981,13 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1016,7 +1013,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1025,7 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1044,9 +1041,9 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -1056,7 +1053,7 @@
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1072,7 +1069,7 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1085,7 +1082,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="11"/>
       <c r="G16" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1100,7 +1097,7 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1113,7 +1110,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="11"/>
       <c r="G17" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1128,7 +1125,7 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1142,7 +1139,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="14"/>
       <c r="H18" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1156,7 +1153,7 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1167,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="14"/>
       <c r="H19" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1184,7 +1181,7 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1210,7 +1207,7 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1232,13 +1229,13 @@
       <c r="M21" s="8"/>
       <c r="N21" s="13"/>
       <c r="O21" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1260,13 +1257,13 @@
       <c r="M22" s="8"/>
       <c r="N22" s="17"/>
       <c r="O22" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,13 +1285,13 @@
       <c r="M23" s="8"/>
       <c r="N23" s="17"/>
       <c r="O23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +1318,7 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1336,7 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -1350,7 +1347,7 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1368,7 +1365,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -1379,7 +1376,7 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1397,7 +1394,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -1408,7 +1405,7 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1423,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -1437,7 +1434,7 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,7 +1452,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -1466,7 +1463,7 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1493,7 +1490,7 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1513,7 +1510,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -1522,7 +1519,7 @@
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
     </row>
-    <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1542,7 +1539,7 @@
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
       <c r="M32" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -1551,7 +1548,7 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
     </row>
-    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1568,7 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
       <c r="M33" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -1580,7 +1577,7 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -1607,7 +1604,7 @@
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1621,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -1636,7 +1633,7 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,7 +1650,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -1665,7 +1662,7 @@
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -1683,7 +1680,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="12"/>
       <c r="K37" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -1694,7 +1691,7 @@
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -1712,7 +1709,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="14"/>
       <c r="K38" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -1723,7 +1720,7 @@
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
@@ -1750,7 +1747,7 @@
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>24</v>
       </c>
@@ -1771,7 +1768,7 @@
       <c r="L40" s="8"/>
       <c r="M40" s="14"/>
       <c r="N40" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
@@ -1779,7 +1776,7 @@
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -1801,14 +1798,14 @@
       <c r="M41"/>
       <c r="N41" s="11"/>
       <c r="O41" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
@@ -1830,14 +1827,14 @@
       <c r="M42"/>
       <c r="N42" s="11"/>
       <c r="O42" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1864,7 +1861,7 @@
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
@@ -1884,7 +1881,7 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -1894,7 +1891,7 @@
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,7 +1911,7 @@
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -1924,7 +1921,7 @@
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>49</v>
       </c>
@@ -1952,7 +1949,7 @@
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1964,7 +1961,7 @@
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -1982,7 +1979,7 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
@@ -1992,11 +1989,11 @@
       <c r="C48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="8" t="s">
+      <c r="D48" s="8"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -2012,21 +2009,7 @@
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:16" ht="17.100000000000001" customHeight="1">
-      <c r="A49" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="8" t="s">
-        <v>54</v>
-      </c>
+    <row r="49" spans="7:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -2038,7 +2021,7 @@
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="1:16" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="7:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P50" s="8"/>
     </row>
   </sheetData>

--- a/Phân tích/Barchart.xlsx
+++ b/Phân tích/Barchart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\CNPM\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D913806F-838F-42EC-99CE-13F95B01433D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE90712-17DF-428C-9CAB-C337C567B537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="64">
   <si>
     <t>Quản lí nhân viên</t>
   </si>
@@ -214,13 +214,16 @@
   </si>
   <si>
     <t>- Check in</t>
+  </si>
+  <si>
+    <t>- Tạo tài khoản</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,11 +691,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
@@ -702,7 +705,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="25.5" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
@@ -711,7 +714,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="D2" s="5"/>
       <c r="E2" s="21" t="s">
         <v>46</v>
@@ -735,7 +738,7 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="D3" s="7" t="s">
         <v>41</v>
       </c>
@@ -780,7 +783,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -789,7 +792,7 @@
       </c>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -816,7 +819,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -845,7 +848,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -874,7 +877,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -903,7 +906,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>60</v>
       </c>
@@ -930,7 +933,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -949,7 +952,7 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -968,7 +971,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -987,7 +990,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1013,7 +1016,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1041,7 +1044,7 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1069,7 +1072,7 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1097,7 +1100,7 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1128,7 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1153,40 +1156,39 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
+    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
+      <c r="M19"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>9</v>
+    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
@@ -1200,16 +1202,18 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="Q20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -1227,17 +1231,17 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="13"/>
+      <c r="N21" s="17"/>
       <c r="O21" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>33</v>
@@ -1263,12 +1267,12 @@
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>10</v>
+    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>32</v>
@@ -1277,26 +1281,24 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
+    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
@@ -1305,10 +1307,12 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="8"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -1318,9 +1322,9 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>33</v>
@@ -1347,9 +1351,9 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>33</v>
@@ -1376,9 +1380,9 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>33</v>
@@ -1390,11 +1394,11 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -1405,9 +1409,9 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>33</v>
@@ -1434,12 +1438,12 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
+    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -1448,13 +1452,11 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -1463,12 +1465,12 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>3</v>
+    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
@@ -1480,9 +1482,11 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="8"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -1490,9 +1494,9 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>33</v>
@@ -1507,10 +1511,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
       <c r="M31" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -1519,9 +1523,9 @@
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
     </row>
-    <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>33</v>
@@ -1548,12 +1552,12 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
     </row>
-    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>14</v>
+    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A33" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
@@ -1562,14 +1566,12 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
@@ -1577,12 +1579,12 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>15</v>
+    <row r="34" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>32</v>
@@ -1591,12 +1593,14 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34"/>
@@ -1604,9 +1608,9 @@
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>33</v>
@@ -1633,9 +1637,9 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>33</v>
@@ -1647,12 +1651,12 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
@@ -1662,9 +1666,9 @@
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>33</v>
@@ -1678,9 +1682,9 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="12"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -1691,12 +1695,12 @@
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>20</v>
+    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>32</v>
@@ -1707,25 +1711,23 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>22</v>
+    <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>32</v>
@@ -1739,17 +1741,19 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>33</v>
@@ -1766,19 +1770,19 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="O40" s="8"/>
+      <c r="M40"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>33</v>
@@ -1805,12 +1809,12 @@
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>26</v>
+    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>32</v>
@@ -1822,24 +1826,22 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>27</v>
+    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>32</v>
@@ -1851,9 +1853,11 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="8"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
@@ -1861,9 +1865,9 @@
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>33</v>
@@ -1891,28 +1895,26 @@
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>29</v>
+    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
@@ -1921,18 +1923,20 @@
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>31</v>
+    <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -1949,9 +1953,9 @@
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>33</v>
@@ -1959,11 +1963,11 @@
       <c r="C47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -1979,37 +1983,27 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="11"/>
+      <c r="C48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="14"/>
       <c r="F48" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+        <v>55</v>
+      </c>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="7:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="7:16" ht="17.100000000000001" customHeight="1">
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
@@ -2021,7 +2015,7 @@
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="7:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="7:16" ht="17.100000000000001" customHeight="1">
       <c r="P50" s="8"/>
     </row>
   </sheetData>

--- a/Phân tích/Barchart.xlsx
+++ b/Phân tích/Barchart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auhai\Documents\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE90712-17DF-428C-9CAB-C337C567B537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92F9C2D-D975-4428-A8B2-975334F7E933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1350" windowWidth="24810" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,11 +691,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
@@ -705,7 +705,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1">
+    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
       <c r="E2" s="21" t="s">
         <v>46</v>
@@ -738,7 +738,7 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
         <v>41</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -792,7 +792,7 @@
       </c>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -819,7 +819,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>60</v>
       </c>
@@ -933,7 +933,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -971,7 +971,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -990,7 +990,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1016,7 +1016,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1044,7 +1044,7 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,7 +1211,7 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1293,7 +1293,7 @@
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1409,7 +1409,7 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -1494,7 +1494,7 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
     </row>
-    <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1552,7 +1552,7 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
     </row>
-    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1608,9 +1608,9 @@
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>33</v>
@@ -1622,12 +1622,12 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -1637,9 +1637,9 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>33</v>
@@ -1653,9 +1653,9 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="12"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -1666,12 +1666,12 @@
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A37" s="1" t="s">
-        <v>20</v>
+    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>32</v>
@@ -1682,25 +1682,23 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>22</v>
+    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>32</v>
@@ -1714,17 +1712,19 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>33</v>
@@ -1736,22 +1736,22 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -1775,12 +1775,11 @@
       <c r="O40" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>26</v>
       </c>
@@ -1809,7 +1808,7 @@
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>27</v>
       </c>
@@ -1836,7 +1835,7 @@
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>28</v>
       </c>
@@ -1865,7 +1864,7 @@
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>29</v>
       </c>
@@ -1895,7 +1894,7 @@
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -1923,7 +1922,7 @@
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
@@ -1953,7 +1952,7 @@
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>51</v>
       </c>
@@ -1983,7 +1982,7 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>63</v>
       </c>
@@ -2003,19 +2002,19 @@
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="7:16" ht="17.100000000000001" customHeight="1">
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+    <row r="49" spans="7:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="7:16" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="7:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
       <c r="P50" s="8"/>
     </row>
   </sheetData>

--- a/Phân tích/Barchart.xlsx
+++ b/Phân tích/Barchart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92F9C2D-D975-4428-A8B2-975334F7E933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A96111-06C1-45BB-B2A5-37029FF95D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1350" windowWidth="24810" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="65">
   <si>
     <t>Quản lí nhân viên</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>- Tạo tài khoản</t>
+  </si>
+  <si>
+    <t>- Tài khoản</t>
   </si>
 </sst>
 </file>
@@ -691,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1156,12 +1159,12 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
+    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>32</v>
@@ -1172,23 +1175,25 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="L19" s="8"/>
-      <c r="M19"/>
-      <c r="N19" s="15"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>11</v>
+    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>32</v>
@@ -1202,18 +1207,16 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="M20"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
     </row>
     <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -1231,9 +1234,9 @@
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="17"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="S21" s="8"/>
@@ -1241,7 +1244,7 @@
     </row>
     <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>33</v>
@@ -1267,12 +1270,12 @@
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
+    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>32</v>
@@ -1281,24 +1284,26 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="Q23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
+    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
@@ -1307,12 +1312,10 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -1324,7 +1327,7 @@
     </row>
     <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>33</v>
@@ -1353,7 +1356,7 @@
     </row>
     <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>33</v>
@@ -1382,7 +1385,7 @@
     </row>
     <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>33</v>
@@ -1394,11 +1397,11 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -1411,7 +1414,7 @@
     </row>
     <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>33</v>
@@ -1438,12 +1441,12 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>3</v>
+    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>32</v>
@@ -1452,11 +1455,13 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -1465,12 +1470,12 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
+    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
@@ -1482,11 +1487,9 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -1496,7 +1499,7 @@
     </row>
     <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>33</v>
@@ -1511,10 +1514,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>33</v>
@@ -1552,12 +1555,12 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
     </row>
-    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>15</v>
+    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
@@ -1566,12 +1569,14 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
@@ -1579,12 +1584,12 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>16</v>
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>32</v>
@@ -1593,14 +1598,12 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="M34"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34"/>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="35" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>33</v>
@@ -1622,12 +1625,12 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -1639,7 +1642,7 @@
     </row>
     <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>33</v>
@@ -1653,9 +1656,9 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="14"/>
+      <c r="J36" s="12"/>
       <c r="K36" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -1666,12 +1669,12 @@
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>22</v>
+    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>32</v>
@@ -1682,23 +1685,25 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="L37" s="8"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
+    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>32</v>
@@ -1712,10 +1717,8 @@
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
@@ -1724,7 +1727,7 @@
     </row>
     <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>33</v>
@@ -1736,15 +1739,15 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="8" t="s">
-        <v>54</v>
-      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
@@ -1753,7 +1756,7 @@
     </row>
     <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>33</v>
@@ -1765,23 +1768,23 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="8" t="s">
+        <v>54</v>
+      </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
     </row>
     <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>33</v>
@@ -1808,12 +1811,12 @@
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>27</v>
+    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>32</v>
@@ -1825,22 +1828,24 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>28</v>
+    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>32</v>
@@ -1852,11 +1857,9 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
@@ -1866,7 +1869,7 @@
     </row>
     <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>33</v>
@@ -1894,26 +1897,28 @@
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>49</v>
+    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
@@ -1922,20 +1927,18 @@
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>33</v>
+    <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -1954,7 +1957,7 @@
     </row>
     <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>33</v>
@@ -1962,11 +1965,11 @@
       <c r="C47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
@@ -1984,28 +1987,51 @@
     </row>
     <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="14"/>
+      <c r="C48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="11"/>
       <c r="F48" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
       <c r="R48" s="8"/>
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="7:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="7:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>

--- a/Phân tích/Barchart.xlsx
+++ b/Phân tích/Barchart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A96111-06C1-45BB-B2A5-37029FF95D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76B6797-B9B3-4A3E-931F-22A4E04CE388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="66">
   <si>
     <t>Quản lí nhân viên</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>- Tài khoản</t>
+  </si>
+  <si>
+    <t>- Xem thông tin khách hàng</t>
   </si>
 </sst>
 </file>
@@ -692,23 +695,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T50"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="16" width="9.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="16" width="9.109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
@@ -717,7 +720,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="5"/>
       <c r="E2" s="21" t="s">
         <v>46</v>
@@ -741,7 +744,7 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="7" t="s">
         <v>41</v>
       </c>
@@ -786,7 +789,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -795,7 +798,7 @@
       </c>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -822,7 +825,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -851,7 +854,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -880,7 +883,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -909,7 +912,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>60</v>
       </c>
@@ -936,7 +939,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -955,7 +958,7 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>62</v>
       </c>
@@ -974,7 +977,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
@@ -993,7 +996,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +1022,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1047,7 +1050,7 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1075,7 +1078,7 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1103,7 +1106,7 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1134,7 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1162,7 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -1188,7 +1191,7 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1217,7 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1242,7 +1245,7 @@
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1270,7 +1273,7 @@
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1298,7 +1301,7 @@
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1325,7 +1328,7 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,7 +1357,7 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1383,7 +1386,7 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1412,7 +1415,7 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1441,7 +1444,7 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1470,7 +1473,7 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1497,7 +1500,7 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1526,7 +1529,7 @@
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
     </row>
-    <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +1558,7 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
     </row>
-    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,7 +1587,7 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +1614,7 @@
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1640,7 +1643,7 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1669,7 +1672,7 @@
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,7 +1701,7 @@
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -1725,7 +1728,7 @@
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -1754,7 +1757,7 @@
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -1782,7 +1785,7 @@
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -1811,7 +1814,7 @@
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
@@ -1840,7 +1843,7 @@
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1867,7 +1870,7 @@
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
@@ -1897,9 +1900,9 @@
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>33</v>
@@ -1914,10 +1917,10 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
       <c r="M45" s="8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -1928,25 +1931,27 @@
       <c r="T45" s="8"/>
     </row>
     <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>49</v>
+      <c r="A46" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
@@ -1955,20 +1960,18 @@
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>33</v>
+    <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -1985,9 +1988,9 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>33</v>
@@ -1995,11 +1998,11 @@
       <c r="C48" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
@@ -2015,33 +2018,63 @@
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+    </row>
+    <row r="50" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="8" t="s">
+      <c r="B50" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="P49" s="8"/>
-    </row>
-    <row r="50" spans="1:16" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
       <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Phân tích/Barchart.xlsx
+++ b/Phân tích/Barchart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76B6797-B9B3-4A3E-931F-22A4E04CE388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB8E90-D67C-45E4-A552-992AD8B20780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -180,9 +180,6 @@
     <t>- Đăng nhập</t>
   </si>
   <si>
-    <t>- Thay đổi thông tin tài khoản</t>
-  </si>
-  <si>
     <t>Kim Long</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>- Xem thông tin khách hàng</t>
+  </si>
+  <si>
+    <t>- Xem, thay đổi thông tin tài khoản</t>
   </si>
 </sst>
 </file>
@@ -697,21 +697,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="1"/>
-    <col min="3" max="4" width="9.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="16" width="9.109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="16" width="9.140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
       <c r="E2" s="21" t="s">
         <v>46</v>
@@ -738,13 +738,13 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
         <v>41</v>
       </c>
@@ -789,7 +789,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -798,7 +798,7 @@
       </c>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -825,7 +825,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -845,7 +845,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -854,7 +854,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -883,7 +883,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -903,7 +903,7 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -912,9 +912,9 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>31</v>
@@ -939,9 +939,9 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>33</v>
@@ -952,15 +952,15 @@
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>33</v>
@@ -971,15 +971,15 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>33</v>
@@ -990,13 +990,13 @@
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1050,9 +1050,9 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>33</v>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1078,7 +1078,7 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="11"/>
       <c r="G16" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -1106,7 +1106,7 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1119,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="11"/>
       <c r="G17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -1134,7 +1134,7 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1148,7 +1148,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="14"/>
       <c r="H18" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1162,9 +1162,9 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>33</v>
@@ -1180,7 +1180,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="12"/>
       <c r="K19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
@@ -1191,7 +1191,7 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1239,13 +1239,13 @@
       <c r="M21" s="8"/>
       <c r="N21" s="13"/>
       <c r="O21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1267,13 +1267,13 @@
       <c r="M22" s="8"/>
       <c r="N22" s="17"/>
       <c r="O22" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1295,13 +1295,13 @@
       <c r="M23" s="8"/>
       <c r="N23" s="17"/>
       <c r="O23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q23" s="8"/>
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
@@ -1357,7 +1357,7 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
@@ -1386,7 +1386,7 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L27" s="8"/>
       <c r="M27" s="8"/>
@@ -1415,7 +1415,7 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
@@ -1444,7 +1444,7 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1462,7 +1462,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
@@ -1473,7 +1473,7 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -1529,7 +1529,7 @@
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
     </row>
-    <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="K32" s="17"/>
       <c r="L32" s="17"/>
       <c r="M32" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -1558,7 +1558,7 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
     </row>
-    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="K33" s="17"/>
       <c r="L33" s="17"/>
       <c r="M33" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -1587,7 +1587,7 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
       <c r="J35" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -1643,7 +1643,7 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="I36" s="8"/>
       <c r="J36" s="12"/>
       <c r="K36" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -1672,7 +1672,7 @@
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="14"/>
       <c r="K37" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -1701,7 +1701,7 @@
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="L39" s="8"/>
       <c r="M39" s="14"/>
       <c r="N39" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
@@ -1757,7 +1757,7 @@
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -1785,7 +1785,7 @@
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -1807,14 +1807,14 @@
       <c r="M41"/>
       <c r="N41" s="11"/>
       <c r="O41" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
@@ -1836,14 +1836,14 @@
       <c r="M42"/>
       <c r="N42" s="11"/>
       <c r="O42" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="K44" s="12"/>
       <c r="L44" s="12"/>
       <c r="M44" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -1900,9 +1900,9 @@
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>33</v>
@@ -1920,7 +1920,7 @@
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
       <c r="M45" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -1930,7 +1930,7 @@
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
@@ -1960,7 +1960,7 @@
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -1988,7 +1988,7 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -2018,9 +2018,9 @@
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>33</v>
@@ -2031,7 +2031,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="11"/>
       <c r="F49" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -2048,9 +2048,9 @@
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>33</v>
@@ -2060,11 +2060,11 @@
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P50" s="8"/>
     </row>
-    <row r="51" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>

--- a/Phân tích/Barchart.xlsx
+++ b/Phân tích/Barchart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\CNPM\Phân tích\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB8E90-D67C-45E4-A552-992AD8B20780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48871916-9C8A-45AD-9265-4742BFD636E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -701,17 +701,17 @@
       <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="4" width="9.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="16" width="9.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1"/>
+    <col min="3" max="4" width="9.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="16" width="9.109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
@@ -720,7 +720,7 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="5"/>
       <c r="E2" s="21" t="s">
         <v>46</v>
@@ -744,7 +744,7 @@
       <c r="R2"/>
       <c r="S2"/>
     </row>
-    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="7" t="s">
         <v>41</v>
       </c>
@@ -789,7 +789,7 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
@@ -798,7 +798,7 @@
       </c>
       <c r="O4"/>
     </row>
-    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -825,7 +825,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="S7" s="8"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>59</v>
       </c>
@@ -939,7 +939,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="S10" s="8"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="S12" s="8"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1050,7 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="S15" s="8"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="S16" s="8"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1162,7 +1162,7 @@
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1245,7 +1245,7 @@
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1273,7 @@
       <c r="S22" s="8"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="S23" s="8"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="S24" s="8"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="S25" s="8"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="S26" s="8"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="S27" s="8"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="S28" s="8"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="S29" s="8"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>3</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="S30" s="8"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1529,7 +1529,7 @@
       <c r="S31" s="8"/>
       <c r="T31" s="8"/>
     </row>
-    <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1558,7 +1558,7 @@
       <c r="S32" s="8"/>
       <c r="T32" s="8"/>
     </row>
-    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="S33" s="8"/>
       <c r="T33" s="8"/>
     </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="S34" s="8"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="S36" s="8"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,7 +1701,7 @@
       <c r="S37" s="8"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -1728,7 +1728,7 @@
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="S39" s="8"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="S40" s="8"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="S41" s="8"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="S42" s="8"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
@@ -1870,7 +1870,7 @@
       <c r="S43" s="8"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>28</v>
       </c>
@@ -1900,7 +1900,7 @@
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>64</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="S46" s="8"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -1988,7 +1988,7 @@
       <c r="S47" s="8"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="S48" s="8"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
@@ -2048,7 +2048,7 @@
       <c r="S49" s="8"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="P50" s="8"/>
     </row>
-    <row r="51" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>

--- a/Phân tích/Barchart.xlsx
+++ b/Phân tích/Barchart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48871916-9C8A-45AD-9265-4742BFD636E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB01D7A5-0719-47B1-BB22-89F71CBEE22B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="66">
   <si>
     <t>Quản lí nhân viên</t>
   </si>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -790,12 +790,8 @@
       <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="O4"/>
     </row>
     <row r="5" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
@@ -2084,7 +2080,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C4 E3:P3" numberStoredAsText="1"/>
+    <ignoredError sqref="E3:P3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>